--- a/report.xlsx
+++ b/report.xlsx
@@ -483,13 +483,13 @@
         <v>2003</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1366</v>
+        <v>44741</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1221</v>
+        <v>52122</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1221</v>
+        <v>52122</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>27</v>
@@ -500,16 +500,16 @@
         <v>2004</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1488</v>
+        <v>49833</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1596</v>
+        <v>52993</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1596</v>
+        <v>52993</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -517,16 +517,16 @@
         <v>2005</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>13331</v>
+        <v>472633</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1474</v>
+        <v>64892</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1474</v>
+        <v>64892</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
@@ -534,16 +534,16 @@
         <v>2006</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1522</v>
+        <v>63916</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1393</v>
+        <v>53762</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1393</v>
+        <v>53762</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>491</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6">
@@ -551,16 +551,16 @@
         <v>2007</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>5604</v>
+        <v>65569</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>6385</v>
+        <v>73991</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6385</v>
+        <v>73991</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>795</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>2008</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>27478</v>
+        <v>50139</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>29848</v>
+        <v>42493</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>29848</v>
+        <v>42493</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1162</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         <v>2009</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>37548</v>
+        <v>30375</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>43784</v>
+        <v>28294</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>43784</v>
+        <v>28294</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>663</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9">
@@ -602,16 +602,16 @@
         <v>2010</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>40958</v>
+        <v>26984</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>47832</v>
+        <v>23637</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>47832</v>
+        <v>23637</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1460</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         <v>2011</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42359</v>
+        <v>27932</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>52471</v>
+        <v>26798</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>52471</v>
+        <v>26798</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2073</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="11">
@@ -636,16 +636,16 @@
         <v>2012</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44540</v>
+        <v>28668</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>57332</v>
+        <v>27336</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>57332</v>
+        <v>27336</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2341</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="12">
@@ -653,16 +653,16 @@
         <v>2013</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>46218</v>
+        <v>33687</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>54067</v>
+        <v>26299</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>54067</v>
+        <v>26299</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2815</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="13">
@@ -670,16 +670,16 @@
         <v>2014</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>48482</v>
+        <v>27738</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>57671</v>
+        <v>24043</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>57671</v>
+        <v>24043</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>3395</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="14">
@@ -687,16 +687,16 @@
         <v>2015</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>50654</v>
+        <v>26434</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>57898</v>
+        <v>24225</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>57898</v>
+        <v>24225</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>3870</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="15">
@@ -704,16 +704,16 @@
         <v>2016</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>58261</v>
+        <v>31807</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>60168</v>
+        <v>23820</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>60168</v>
+        <v>23820</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>5578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="16">
@@ -721,16 +721,16 @@
         <v>2017</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>61724</v>
+        <v>30638</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>61776</v>
+        <v>23376</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>61776</v>
+        <v>23376</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>7564</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="17">
@@ -738,16 +738,16 @@
         <v>2018</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>65563</v>
+        <v>34911</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>70440</v>
+        <v>24291</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>70440</v>
+        <v>24291</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>9288</v>
+        <v>4639</v>
       </c>
     </row>
   </sheetData>
@@ -801,11 +801,11 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Алматы</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>179001</v>
+        <v>46078</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
@@ -820,11 +820,11 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>70218</v>
+        <v>39750</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr">
@@ -839,11 +839,11 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Новосибирск</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>61230</v>
+        <v>34995</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr">
@@ -858,11 +858,11 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Екатеринбург</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>57592</v>
+        <v>33215</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr">
@@ -877,11 +877,11 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Екатеринбург</t>
+          <t>Краснодар</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>54972</v>
+        <v>32032</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" s="2" t="inlineStr">
@@ -896,11 +896,11 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Краснодар</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>50049</v>
+        <v>30293</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" s="2" t="inlineStr">
@@ -915,11 +915,11 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Минск</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>47800</v>
+        <v>29656</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr">
@@ -934,11 +934,11 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Самара</t>
+          <t>Ростов-на-Дону</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>46337</v>
+        <v>28576</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" s="2" t="inlineStr">
@@ -953,11 +953,11 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Нижний Новгород</t>
+          <t>Пермь</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44775</v>
+        <v>27681</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr">
@@ -972,11 +972,11 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Пермь</t>
+          <t>Самара</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44542</v>
+        <v>27616</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr">
